--- a/biology/Histoire de la zoologie et de la botanique/François-Emmanuel_Fodéré/François-Emmanuel_Fodéré.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François-Emmanuel_Fodéré/François-Emmanuel_Fodéré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Emmanuel_Fod%C3%A9r%C3%A9</t>
+          <t>François-Emmanuel_Fodéré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François-Emmanuel Fodéré, né en 1764 à Saint-Jean-de-Maurienne (Duché de Savoie) et mort le 4 février 1835 à Strasbourg, est un médecin et botaniste savoyard[1],[2]. Il est considéré comme « le père de la médecine légale »[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François-Emmanuel Fodéré, né en 1764 à Saint-Jean-de-Maurienne (Duché de Savoie) et mort le 4 février 1835 à Strasbourg, est un médecin et botaniste savoyard,. Il est considéré comme « le père de la médecine légale ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Emmanuel_Fod%C3%A9r%C3%A9</t>
+          <t>François-Emmanuel_Fodéré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph-Benoît dit François-Emmanuel Fodéré naît le 8 janvier 1764[4] ou le 17 février 1764 à Saint-Jean-de-Maurienne, dans le duché de Savoie[5]. On trouve également la date du 15 janvier 1764, notamment dans la notice d'autorité de la BNF. Son père, Barnabé Fodéré[4], originaire de Bessans, étant mort avant sa naissance, sa mère, Marie-Nicolette Vectier[4], fille de Nicolas Vectier de Thonon, l'éleva avec toutes les difficultés que pouvait alors rencontrer une veuve.
-Au collège Lambert de Saint-Jean-de-Maurienne[4], on remarqua vite les qualités exceptionnelles de l'adolescent. Une intervention de l'Intendant de Maurienne, le chevalier de Saint-Réal, lui permit d'aller étudier à Chambéry puis la médecine à Turin[5]. Il obtint son titre de docteur en médecine à l’université de Turin où il suivit les cours de Carlo Allioni (1728 ou 1729-1804) aux côtés de Giovanni Battista Balbis (1765-1831).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph-Benoît dit François-Emmanuel Fodéré naît le 8 janvier 1764 ou le 17 février 1764 à Saint-Jean-de-Maurienne, dans le duché de Savoie. On trouve également la date du 15 janvier 1764, notamment dans la notice d'autorité de la BNF. Son père, Barnabé Fodéré, originaire de Bessans, étant mort avant sa naissance, sa mère, Marie-Nicolette Vectier, fille de Nicolas Vectier de Thonon, l'éleva avec toutes les difficultés que pouvait alors rencontrer une veuve.
+Au collège Lambert de Saint-Jean-de-Maurienne, on remarqua vite les qualités exceptionnelles de l'adolescent. Une intervention de l'Intendant de Maurienne, le chevalier de Saint-Réal, lui permit d'aller étudier à Chambéry puis la médecine à Turin. Il obtint son titre de docteur en médecine à l’université de Turin où il suivit les cours de Carlo Allioni (1728 ou 1729-1804) aux côtés de Giovanni Battista Balbis (1765-1831).
 Grâce à une bourse du roi Victor-Amédée III de Sardaigne, duc de Savoie, il étudia la médecine légale à Paris en 1792 et s’engagea dans l’armée des Alpes avec laquelle il participa au siège de Marseille et de Mantoue (1796-1797).
-Il est élu le 24 avril 1825 à l'Académie des sciences, belles-lettres et arts de Savoie, avec pour titre académique Correspondant[6].
-Lorsque la chaire de médecine légale (dont il est considéré comme le père) fut créée à Strasbourg, Fodéré, âgé de 50 ans et au sommet de sa carrière, concourut et fut nommé à l'unanimité. Il garda sa chaire jusqu'à sa mort. Ancien membre de la  Société de médecine de Marseille, il détenait également la chaire d'hygiène publique de Strasbourg. En cette qualité, il critiquait les hygiénistes proches du pouvoir, membres du Conseil d'hygiène publique de Paris, et réclamait une intervention accrue du gouvernement, contre le libéralisme de ces derniers[7].
+Il est élu le 24 avril 1825 à l'Académie des sciences, belles-lettres et arts de Savoie, avec pour titre académique Correspondant.
+Lorsque la chaire de médecine légale (dont il est considéré comme le père) fut créée à Strasbourg, Fodéré, âgé de 50 ans et au sommet de sa carrière, concourut et fut nommé à l'unanimité. Il garda sa chaire jusqu'à sa mort. Ancien membre de la  Société de médecine de Marseille, il détenait également la chaire d'hygiène publique de Strasbourg. En cette qualité, il critiquait les hygiénistes proches du pouvoir, membres du Conseil d'hygiène publique de Paris, et réclamait une intervention accrue du gouvernement, contre le libéralisme de ces derniers.
 II publia des mémoires sur les sujets les plus variés : le crétinisme, le goître, les affections scorbutiques de la bouche, la phtisie pulmonaire, le choléra…, et en général sur les maladies des montagnards, sur le délire et sur la pneumologie humaine.
 Une épidémie de typhus l'amena à publier un traité en 4 volumes intitulé Leçons sur les épidémies et l'hygiène publique.
-On considère que son œuvre maîtresse est son Traité de médecine légale et d'hygiène publique publié en 1813 [8]. 
-Il meurt le 4 février 1835 à Strasbourg[4].
+On considère que son œuvre maîtresse est son Traité de médecine légale et d'hygiène publique publié en 1813 . 
+Il meurt le 4 février 1835 à Strasbourg.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Emmanuel_Fod%C3%A9r%C3%A9</t>
+          <t>François-Emmanuel_Fodéré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur le goitre et le crétinage, impr. royale (Turin) , 1792, Texte intégral
 Analyse des eaux thermales et minérales du Plan de Fasy sous Mont-Lyon, district d'Embrun, impr. de Moyse (Embrun),1794, lire en ligne sur Gallica
@@ -593,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Emmanuel_Fod%C3%A9r%C3%A9</t>
+          <t>François-Emmanuel_Fodéré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +627,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À Saint-Jean-de-Maurienne, sur la place qui porte son nom, une statue de bronze rappelle son souvenir.
 La ville de Nice lui a également rendu hommage (rue Fodéré, caserne Fodéré).
